--- a/docs/bijlages/GANTT PLANNING.xlsx
+++ b/docs/bijlages/GANTT PLANNING.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/quintenleysen/Documents/BAP/docs/bijlages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13DBCDA5-9241-964D-9A85-1BCA2DBF1F4F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0B1C2DA-9811-7C4C-ADA8-6AAE1EF0BD45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-59720" yWindow="4000" windowWidth="23960" windowHeight="17440" xr2:uid="{05605EF2-320D-1C47-A3B4-9D8B127BD9FD}"/>
+    <workbookView xWindow="-24300" yWindow="540" windowWidth="29420" windowHeight="17440" xr2:uid="{05605EF2-320D-1C47-A3B4-9D8B127BD9FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,9 +38,6 @@
     <t>Onderzoek</t>
   </si>
   <si>
-    <t>Milestone/periode</t>
-  </si>
-  <si>
     <t>Enquetes</t>
   </si>
   <si>
@@ -102,22 +99,17 @@
   </si>
   <si>
     <t>Deploy</t>
+  </si>
+  <si>
+    <t>Milestone/ Sprints</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,6 +119,22 @@
     <font>
       <strike/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -192,16 +200,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C13973-DCE7-8243-BB72-6322B5373B22}">
   <dimension ref="L30:X55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I18" zoomScale="91" workbookViewId="0">
-      <selection activeCell="M55" sqref="M55"/>
+    <sheetView tabSelected="1" topLeftCell="J25" zoomScale="126" zoomScaleNormal="126" workbookViewId="0">
+      <selection activeCell="AA57" sqref="AA57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,9 +537,9 @@
     <col min="12" max="12" width="25.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="30" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="L30" s="1" t="s">
-        <v>1</v>
+    <row r="30" spans="12:24" ht="21" x14ac:dyDescent="0.25">
+      <c r="L30" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="M30" s="1">
         <v>1</v>
@@ -569,12 +578,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="31" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="L31" s="2" t="s">
+    <row r="31" spans="12:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="L31" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
@@ -588,9 +597,9 @@
     </row>
     <row r="32" spans="12:24" x14ac:dyDescent="0.2">
       <c r="L32" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M32" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
       <c r="P32" s="1"/>
@@ -605,9 +614,9 @@
     </row>
     <row r="33" spans="12:24" x14ac:dyDescent="0.2">
       <c r="L33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M33" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="M33" s="2"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
       <c r="P33" s="1"/>
@@ -620,14 +629,14 @@
       <c r="W33" s="1"/>
       <c r="X33" s="1"/>
     </row>
-    <row r="34" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="L34" s="2" t="s">
-        <v>4</v>
+    <row r="34" spans="12:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="L34" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="M34" s="1"/>
-      <c r="N34" s="4"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
@@ -639,10 +648,10 @@
     </row>
     <row r="35" spans="12:24" x14ac:dyDescent="0.2">
       <c r="L35" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M35" s="1"/>
-      <c r="N35" s="4"/>
+      <c r="N35" s="3"/>
       <c r="O35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
@@ -656,10 +665,10 @@
     </row>
     <row r="36" spans="12:24" x14ac:dyDescent="0.2">
       <c r="L36" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M36" s="1"/>
-      <c r="N36" s="4"/>
+      <c r="N36" s="3"/>
       <c r="O36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
@@ -673,10 +682,10 @@
     </row>
     <row r="37" spans="12:24" x14ac:dyDescent="0.2">
       <c r="L37" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M37" s="1"/>
-      <c r="N37" s="4"/>
+      <c r="N37" s="3"/>
       <c r="O37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
@@ -690,11 +699,11 @@
     </row>
     <row r="38" spans="12:24" x14ac:dyDescent="0.2">
       <c r="L38" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
-      <c r="O38" s="4"/>
+      <c r="O38" s="3"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
       <c r="R38" s="1"/>
@@ -707,12 +716,12 @@
     </row>
     <row r="39" spans="12:24" x14ac:dyDescent="0.2">
       <c r="L39" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
-      <c r="O39" s="4"/>
-      <c r="P39" s="4"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
       <c r="Q39" s="1"/>
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
@@ -722,34 +731,34 @@
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
     </row>
-    <row r="40" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="L40" s="2" t="s">
-        <v>10</v>
+    <row r="40" spans="12:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="L40" s="9" t="s">
+        <v>9</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1"/>
       <c r="P40" s="1"/>
-      <c r="Q40" s="5"/>
-      <c r="R40" s="5"/>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-    </row>
-    <row r="41" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="L41" s="2" t="s">
-        <v>11</v>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+    </row>
+    <row r="41" spans="12:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="L41" s="9" t="s">
+        <v>10</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1"/>
       <c r="P41" s="1"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
       <c r="T41" s="1"/>
       <c r="U41" s="1"/>
       <c r="V41" s="1"/>
@@ -758,15 +767,15 @@
     </row>
     <row r="42" spans="12:24" x14ac:dyDescent="0.2">
       <c r="L42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
-      <c r="Q42" s="5"/>
-      <c r="R42" s="5"/>
-      <c r="S42" s="5"/>
+      <c r="Q42" s="4"/>
+      <c r="R42" s="4"/>
+      <c r="S42" s="4"/>
       <c r="T42" s="1"/>
       <c r="U42" s="1"/>
       <c r="V42" s="1"/>
@@ -775,15 +784,15 @@
     </row>
     <row r="43" spans="12:24" x14ac:dyDescent="0.2">
       <c r="L43" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="5"/>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
+      <c r="Q43" s="4"/>
+      <c r="R43" s="4"/>
+      <c r="S43" s="4"/>
       <c r="T43" s="1"/>
       <c r="U43" s="1"/>
       <c r="V43" s="1"/>
@@ -792,7 +801,7 @@
     </row>
     <row r="44" spans="12:24" x14ac:dyDescent="0.2">
       <c r="L44" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="1"/>
@@ -800,16 +809,16 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="1"/>
-      <c r="S44" s="5"/>
+      <c r="S44" s="4"/>
       <c r="T44" s="1"/>
       <c r="U44" s="1"/>
       <c r="V44" s="1"/>
       <c r="W44" s="1"/>
       <c r="X44" s="1"/>
     </row>
-    <row r="45" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="L45" s="2" t="s">
-        <v>15</v>
+    <row r="45" spans="12:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="L45" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -817,16 +826,16 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="1"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
       <c r="X45" s="1"/>
     </row>
     <row r="46" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="L46" s="6" t="s">
-        <v>12</v>
+      <c r="L46" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="1"/>
@@ -834,16 +843,16 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="1"/>
-      <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
       <c r="X46" s="1"/>
     </row>
     <row r="47" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="L47" s="6" t="s">
-        <v>20</v>
+      <c r="L47" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="1"/>
@@ -851,7 +860,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="1"/>
-      <c r="S47" s="5"/>
+      <c r="S47" s="4"/>
       <c r="T47" s="1"/>
       <c r="U47" s="1"/>
       <c r="V47" s="1"/>
@@ -859,8 +868,8 @@
       <c r="X47" s="1"/>
     </row>
     <row r="48" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="L48" s="6" t="s">
-        <v>17</v>
+      <c r="L48" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="1"/>
@@ -870,14 +879,14 @@
       <c r="R48" s="1"/>
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
       <c r="W48" s="1"/>
       <c r="X48" s="1"/>
     </row>
     <row r="49" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="L49" s="6" t="s">
-        <v>18</v>
+      <c r="L49" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
@@ -889,12 +898,12 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="5"/>
+      <c r="W49" s="4"/>
       <c r="X49" s="1"/>
     </row>
     <row r="50" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="L50" s="6" t="s">
-        <v>19</v>
+      <c r="L50" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
@@ -906,29 +915,29 @@
       <c r="T50" s="1"/>
       <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="5"/>
+      <c r="W50" s="4"/>
       <c r="X50" s="1"/>
     </row>
-    <row r="51" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="L51" s="2" t="s">
-        <v>21</v>
+    <row r="51" spans="12:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="L51" s="9" t="s">
+        <v>20</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="1"/>
-    </row>
-    <row r="52" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="L52" s="2" t="s">
-        <v>22</v>
+      <c r="Q51" s="6"/>
+      <c r="R51" s="6"/>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="6"/>
+      <c r="W51" s="6"/>
+      <c r="X51" s="6"/>
+    </row>
+    <row r="52" spans="12:24" ht="19" x14ac:dyDescent="0.25">
+      <c r="L52" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
@@ -941,10 +950,10 @@
       <c r="U52" s="1"/>
       <c r="V52" s="1"/>
       <c r="W52" s="1"/>
-      <c r="X52" s="7"/>
+      <c r="X52" s="6"/>
     </row>
     <row r="55" spans="12:24" x14ac:dyDescent="0.2">
-      <c r="M55" s="8"/>
+      <c r="M55" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
